--- a/transit_times.xlsx
+++ b/transit_times.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meiaalsup/dev/mit/IDS.131/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3D90ECAE-7CF9-9A43-BD1D-AE54FC87FF28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E5A66E-7F3C-484E-A5F6-765310BF4E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transit_times" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">transit_times!$B$2:$B$201</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">transit_times!$A$2:$A$201</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">transit_times!$B$2:$B$201</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">transit_times!$A$2:$A$201</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">transit_times!$A$2:$A$201</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -61,9 +59,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -544,7 +542,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -608,7 +606,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -669,7 +667,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2278,11 +2276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8490,6 +8488,48 @@
         <v>9</v>
       </c>
     </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <f>STDEV(A4:A203)</f>
+        <v>167.60576503608488</v>
+      </c>
+      <c r="B204" s="1">
+        <f t="shared" ref="B204:J204" si="1">STDEV(B4:B203)</f>
+        <v>747.19427188630505</v>
+      </c>
+      <c r="C204" s="1">
+        <f t="shared" si="1"/>
+        <v>122.12108698187212</v>
+      </c>
+      <c r="D204" s="1">
+        <f t="shared" si="1"/>
+        <v>300.64281732956931</v>
+      </c>
+      <c r="E204" s="1">
+        <f t="shared" si="1"/>
+        <v>340.19618879339782</v>
+      </c>
+      <c r="F204" s="1">
+        <f t="shared" si="1"/>
+        <v>219.84625651858534</v>
+      </c>
+      <c r="G204" s="1">
+        <f t="shared" si="1"/>
+        <v>110.10967910677542</v>
+      </c>
+      <c r="H204" s="1">
+        <f t="shared" si="1"/>
+        <v>483.903201541935</v>
+      </c>
+      <c r="I204" s="1">
+        <f t="shared" si="1"/>
+        <v>259.4576574476319</v>
+      </c>
+      <c r="J204" s="1">
+        <f t="shared" si="1"/>
+        <v>135.89834123927898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
